--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -401,7 +401,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Assenso figlio</t>
+    <t>Atto Assenso Figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -2376,7 +2376,7 @@
         <v>36</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>104</v>
@@ -2396,7 +2396,7 @@
         <v>39</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>104</v>
@@ -2416,7 +2416,7 @@
         <v>41</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>104</v>
@@ -2436,7 +2436,7 @@
         <v>43</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>104</v>
@@ -2456,7 +2456,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>104</v>
@@ -2476,7 +2476,7 @@
         <v>47</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>104</v>
@@ -2496,7 +2496,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>104</v>
@@ -2516,7 +2516,7 @@
         <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>104</v>
@@ -2536,7 +2536,7 @@
         <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>104</v>
@@ -2556,7 +2556,7 @@
         <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>104</v>
@@ -2576,7 +2576,7 @@
         <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>104</v>
@@ -2596,7 +2596,7 @@
         <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>104</v>
@@ -2616,7 +2616,7 @@
         <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>104</v>
@@ -2636,7 +2636,7 @@
         <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>104</v>
@@ -2656,7 +2656,7 @@
         <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>104</v>
@@ -2676,7 +2676,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>104</v>
@@ -2696,7 +2696,7 @@
         <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>104</v>
@@ -2716,7 +2716,7 @@
         <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>104</v>
@@ -2736,7 +2736,7 @@
         <v>73</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>104</v>
@@ -2756,7 +2756,7 @@
         <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>104</v>
@@ -2776,7 +2776,7 @@
         <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>104</v>
@@ -2796,7 +2796,7 @@
         <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>104</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -1925,7 +1925,7 @@
         <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -1965,7 +1965,7 @@
         <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -281,6 +287,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -407,6 +416,9 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -414,6 +426,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -514,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -526,6 +541,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -547,205 +563,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -767,3085 +816,3550 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,52 +32,55 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di assenso del figlio</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di assenso del figlio</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -817,3549 +820,3549 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -290,7 +293,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -419,7 +422,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -431,7 +434,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -532,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -544,7 +547,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.99609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -641,13 +644,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -664,13 +667,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -687,7 +690,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -710,7 +713,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -733,7 +736,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -756,7 +759,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -779,7 +782,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -801,2538 +804,2538 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>124</v>
@@ -3341,44 +3344,44 @@
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>127</v>
@@ -3387,228 +3390,228 @@
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>124</v>
@@ -3617,752 +3620,775 @@
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F162" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E166" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>27</v>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -308,22 +308,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -535,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2677,10 +2695,10 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2691,88 +2709,88 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2801,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2870,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2893,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2916,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2939,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2962,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2990,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3215,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3238,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3261,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3266,16 +3284,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>119</v>
@@ -3289,7 +3307,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>120</v>
@@ -3298,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>121</v>
@@ -3312,7 +3330,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>122</v>
@@ -3321,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>123</v>
@@ -3335,7 +3353,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>124</v>
@@ -3344,10 +3362,10 @@
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3376,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3399,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3422,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3427,22 +3445,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3450,22 +3468,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3473,85 +3491,85 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>119</v>
@@ -3560,12 +3578,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>120</v>
@@ -3574,7 +3592,7 @@
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>121</v>
@@ -3583,21 +3601,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>123</v>
@@ -3606,12 +3624,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>124</v>
@@ -3620,720 +3638,720 @@
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E163" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>150</v>
@@ -4347,7 +4365,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>151</v>
@@ -4356,13 +4374,13 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>28</v>
@@ -4370,7 +4388,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>153</v>
@@ -4379,7 +4397,7 @@
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>154</v>
@@ -4388,6 +4406,75 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -197,6 +197,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -416,22 +422,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Assenso Figlio</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1513,19 +1519,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2028,19 @@
         <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -2045,7 +2051,7 @@
         <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -2054,7 +2060,7 @@
         <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2065,22 +2071,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2163,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,22 +2186,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,22 +2278,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2324,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2370,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2508,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,22 +2534,22 @@
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
@@ -2551,22 +2557,22 @@
         <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
@@ -2574,292 +2580,292 @@
         <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,19 +2876,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2899,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2922,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2945,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2968,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,19 +2991,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3014,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3037,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3060,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3175,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3221,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3287,16 +3293,16 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3310,16 +3316,16 @@
         <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,16 +3339,16 @@
         <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,16 +3362,16 @@
         <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3382,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3405,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3428,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3451,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,19 +3474,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3491,19 +3497,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3514,22 +3520,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3537,22 +3543,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>28</v>
@@ -3560,921 +3566,1036 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G166" s="2" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -458,7 +458,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -571,7 +574,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.99609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4443,7 +4446,7 @@
         <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
@@ -4463,19 +4466,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4486,19 +4489,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>18</v>
@@ -4509,10 +4512,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -4521,7 +4524,7 @@
         <v>26</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4532,10 +4535,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
@@ -4544,7 +4547,7 @@
         <v>115</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4555,10 +4558,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4567,7 +4570,7 @@
         <v>115</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4578,10 +4581,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -4590,7 +4593,7 @@
         <v>115</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4446,7 +4443,7 @@
         <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
@@ -4466,19 +4463,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4489,19 +4486,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>18</v>
@@ -4512,10 +4509,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -4524,7 +4521,7 @@
         <v>26</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4535,10 +4532,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
@@ -4547,7 +4544,7 @@
         <v>115</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4558,10 +4555,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4570,7 +4567,7 @@
         <v>115</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4581,10 +4578,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -4593,7 +4590,7 @@
         <v>115</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4443,7 +4446,7 @@
         <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
@@ -4463,19 +4466,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4486,19 +4489,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>18</v>
@@ -4509,10 +4512,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -4521,7 +4524,7 @@
         <v>26</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4532,10 +4535,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
@@ -4544,7 +4547,7 @@
         <v>115</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4555,10 +4558,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4567,7 +4570,7 @@
         <v>115</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4578,10 +4581,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
@@ -4590,7 +4593,7 @@
         <v>115</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -279,6 +279,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -562,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -572,7 +602,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2074,22 +2104,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2097,19 +2127,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2150,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2173,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2196,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2189,22 +2219,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2212,19 +2242,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2235,22 +2265,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2258,19 +2288,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2281,22 +2311,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2304,19 +2334,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2357,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,22 +2380,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2373,19 +2403,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2396,22 +2426,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2419,19 +2449,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2472,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2495,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2518,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2541,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2564,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2587,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2610,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2603,479 +2633,479 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3086,19 +3116,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3109,19 +3139,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3162,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3185,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3208,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3231,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3254,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3277,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3270,19 +3300,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3323,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3346,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3369,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3392,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3385,19 +3415,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3408,19 +3438,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3431,19 +3461,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3454,19 +3484,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3477,19 +3507,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3500,19 +3530,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3523,19 +3553,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3546,19 +3576,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3569,19 +3599,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3592,22 +3622,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>28</v>
@@ -3615,22 +3645,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>28</v>
@@ -3638,19 +3668,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3661,944 +3691,1151 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E172" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G172" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,6 +149,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -203,13 +209,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -317,208 +323,136 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Assenso Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -592,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1575,19 +1509,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1532,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1555,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1578,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1601,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1624,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1670,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1716,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2012,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2035,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2058,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2219,22 +2153,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2242,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2265,22 +2199,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2288,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2380,22 +2314,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2403,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2426,22 +2360,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2449,22 +2383,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>28</v>
@@ -2472,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,22 +2429,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2518,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2567,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2613,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2636,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2659,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2682,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,22 +2777,22 @@
         <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -2866,22 +2800,22 @@
         <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
@@ -2889,223 +2823,223 @@
         <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3185,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3142,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3165,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3188,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3211,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3234,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3257,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3280,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3303,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3326,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3415,19 +3349,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3438,19 +3372,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3461,19 +3395,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3484,19 +3418,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3507,19 +3441,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3530,19 +3464,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3553,19 +3487,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3576,19 +3510,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3599,19 +3533,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3622,19 +3556,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3645,19 +3579,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3668,22 +3602,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>28</v>
@@ -3691,22 +3625,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3714,19 +3648,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3737,33 +3671,33 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
@@ -3772,21 +3706,21 @@
         <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
@@ -3795,21 +3729,21 @@
         <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
@@ -3818,44 +3752,44 @@
         <v>130</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3864,21 +3798,21 @@
         <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
@@ -3887,955 +3821,817 @@
         <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -526,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1532,19 +1538,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1555,19 +1561,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1578,19 +1584,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1607,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1630,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1653,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1676,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1699,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1722,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1745,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1768,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1860,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2182,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2199,22 +2205,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2245,22 +2251,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2383,22 +2389,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>28</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>16</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2475,22 +2481,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2596,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2619,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2846,16 +2852,16 @@
         <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2869,16 +2875,16 @@
         <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2892,16 +2898,16 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2964,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3010,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3125,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3194,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3217,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3240,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3332,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3355,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3398,16 +3404,16 @@
         <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3421,16 +3427,16 @@
         <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3444,16 +3450,16 @@
         <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3467,16 +3473,16 @@
         <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3487,19 +3493,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3510,19 +3516,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3533,19 +3539,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3562,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3579,19 +3585,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3602,22 +3608,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>28</v>
@@ -3625,22 +3631,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3648,19 +3654,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3671,967 +3677,1082 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1561,19 +1567,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1682,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1728,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1751,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1774,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2251,22 +2257,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,22 +2303,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2435,22 +2441,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>16</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2527,22 +2533,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>28</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2832,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2855,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2878,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2901,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2921,16 +2927,16 @@
         <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2944,16 +2950,16 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2967,16 +2973,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2993,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3016,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3039,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3062,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3085,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3108,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3131,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3154,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3177,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3200,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3217,19 +3223,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3240,19 +3246,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3263,19 +3269,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3292,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3315,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3338,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3355,19 +3361,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3384,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3401,19 +3407,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3430,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3453,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3476,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3496,16 +3502,16 @@
         <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3519,16 +3525,16 @@
         <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3542,16 +3548,16 @@
         <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3565,16 +3571,16 @@
         <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3591,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3614,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3637,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3654,19 +3660,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3677,19 +3683,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3700,22 +3706,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>28</v>
@@ -3723,22 +3729,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>28</v>
@@ -3746,19 +3752,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3769,990 +3775,1105 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E183" s="2" t="s">
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
+  </si>
+  <si>
     <t>Autorizzazione del tribunale</t>
   </si>
   <si>
@@ -405,6 +408,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -538,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -630,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -642,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -650,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -670,10 +679,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -693,10 +702,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -716,10 +725,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -739,10 +748,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -762,10 +771,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -785,10 +794,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -808,10 +817,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -849,3186 +858,3186 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>124</v>
@@ -4037,108 +4046,108 @@
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
@@ -4146,7 +4155,7 @@
         <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4155,13 +4164,13 @@
         <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="158">
@@ -4169,712 +4178,758 @@
         <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E188" s="2" t="s">
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>28</v>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -336,12 +336,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -547,16 +541,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3005,16 +2999,16 @@
         <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3028,16 +3022,16 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,16 +3045,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,16 +3068,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3097,16 +3091,16 @@
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3120,16 +3114,16 @@
         <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,16 +3137,16 @@
         <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3166,16 +3160,16 @@
         <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,16 +3183,16 @@
         <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3212,19 +3206,19 @@
         <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>29</v>
@@ -3235,19 +3229,19 @@
         <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3258,19 +3252,19 @@
         <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>29</v>
@@ -3281,16 +3275,16 @@
         <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3301,1634 +3295,1036 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -3876,7 +3876,7 @@
         <v>66</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>138</v>
@@ -3899,7 +3899,7 @@
         <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>138</v>
@@ -3908,7 +3908,7 @@
         <v>69</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>140</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -422,7 +422,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
   </si>
   <si>
     <t>Interprete</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -541,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1593,19 +1605,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1628,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1651,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1674,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1697,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1720,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1743,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1766,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1789,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1812,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1835,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1858,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1881,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1904,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2088,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2272,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2306,22 +2318,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>29</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2398,22 +2410,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>29</v>
@@ -2421,19 +2433,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2456,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2479,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2490,22 +2502,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>29</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2536,22 +2548,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>29</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2594,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2617,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2628,22 +2640,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2651,19 +2663,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2674,22 +2686,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>29</v>
@@ -2697,19 +2709,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2732,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2755,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2778,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2870,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2893,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2916,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2939,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2962,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3203,22 +3215,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>29</v>
@@ -3226,22 +3238,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3249,22 +3261,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>29</v>
@@ -3272,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3295,321 +3307,321 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>140</v>
@@ -3617,19 +3629,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3640,19 +3652,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3663,19 +3675,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3686,19 +3698,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3709,19 +3721,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3732,599 +3744,783 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E164" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -53,7 +53,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di dichiarazione/assenso del figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
@@ -428,10 +428,16 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a:</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
@@ -477,9 +483,6 @@
   </si>
   <si>
     <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -553,16 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3448,1079 +3451,803 @@
         <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
         <v>29</v>
       </c>
     </row>
